--- a/FingertipsProfileManager/MainUI/TestUploadFiles/upload-simple-new-data.xlsx
+++ b/FingertipsProfileManager/MainUI/TestUploadFiles/upload-simple-new-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="15480" windowHeight="11640" tabRatio="761"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="15480" windowHeight="11640" tabRatio="761"/>
   </bookViews>
   <sheets>
     <sheet name="IndicatorDetails" sheetId="13" r:id="rId1"/>
@@ -1589,15 +1589,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
+          <xdr:colOff>9525</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1644,15 +1644,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1699,15 +1699,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1754,13 +1754,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
@@ -1809,15 +1809,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>15240</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>7620</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1864,13 +1864,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2211,14 +2211,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
-    <col min="2" max="2" width="70.109375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" style="41" customWidth="1"/>
     <col min="3" max="3" width="126" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
         <v>294</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>10101</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>288</v>
       </c>
@@ -2239,7 +2239,7 @@
       </c>
       <c r="F2" s="46"/>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
         <v>289</v>
       </c>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="F3" s="47"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="56" t="s">
         <v>290</v>
       </c>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="F4" s="46"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="56" t="s">
         <v>291</v>
       </c>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="F5" s="48"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56" t="s">
         <v>292</v>
       </c>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="F6" s="48"/>
     </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
         <v>293</v>
       </c>
@@ -2292,16 +2292,16 @@
       </c>
       <c r="F7" s="48"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="67"/>
     </row>
-    <row r="10" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
         <v>308</v>
       </c>
       <c r="B10" s="55"/>
     </row>
-    <row r="12" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="117.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="70" t="s">
         <v>314</v>
       </c>
@@ -2313,7 +2313,7 @@
       <c r="G12" s="70"/>
       <c r="H12" s="70"/>
     </row>
-    <row r="13" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
         <v>311</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="G13" s="70"/>
       <c r="H13" s="70"/>
     </row>
-    <row r="14" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
@@ -2347,18 +2347,143 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5128" r:id="rId4" name="ComboBox6">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="'Lookup Tables'!S11" listFillRange="sex" r:id="rId5">
+        <control shapeId="5123" r:id="rId4" name="ComboBox1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="'Lookup Tables'!S6" listFillRange="startyear" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5123" r:id="rId4" name="ComboBox1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5124" r:id="rId6" name="ComboBox2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="'Lookup Tables'!S7" listFillRange="YearRange" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5124" r:id="rId6" name="ComboBox2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5125" r:id="rId8" name="ComboBox3">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="'Lookup Tables'!S8" listFillRange="Quarter" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5125" r:id="rId8" name="ComboBox3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5126" r:id="rId10" name="ComboBox4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="'Lookup Tables'!S9" listFillRange="Months" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5126" r:id="rId10" name="ComboBox4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5127" r:id="rId12" name="ComboBox5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="'Lookup Tables'!S10" listFillRange="ages" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5127" r:id="rId12" name="ComboBox5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5128" r:id="rId14" name="ComboBox6">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="'Lookup Tables'!S11" listFillRange="sex" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
@@ -2367,132 +2492,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5128" r:id="rId4" name="ComboBox6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5127" r:id="rId6" name="ComboBox5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="'Lookup Tables'!S10" listFillRange="ages" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5127" r:id="rId6" name="ComboBox5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5126" r:id="rId8" name="ComboBox4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="'Lookup Tables'!S9" listFillRange="Months" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5126" r:id="rId8" name="ComboBox4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5125" r:id="rId10" name="ComboBox3">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="'Lookup Tables'!S8" listFillRange="Quarter" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5125" r:id="rId10" name="ComboBox3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5124" r:id="rId12" name="ComboBox2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="'Lookup Tables'!S7" listFillRange="YearRange" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>15240</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5124" r:id="rId12" name="ComboBox2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5123" r:id="rId14" name="ComboBox1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="'Lookup Tables'!S6" listFillRange="startyear" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>7620</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5123" r:id="rId14" name="ComboBox1"/>
+        <control shapeId="5128" r:id="rId14" name="ComboBox6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2508,23 +2508,23 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="33" customWidth="1"/>
     <col min="2" max="2" width="15" style="33" customWidth="1"/>
-    <col min="3" max="3" width="30.88671875" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.88671875" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="33"/>
-    <col min="11" max="11" width="4.33203125" style="33" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" style="33" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="33"/>
+    <col min="3" max="3" width="30.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="33"/>
+    <col min="11" max="11" width="4.28515625" style="33" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="33" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>322</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="R1" s="52"/>
       <c r="S1" s="52"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="R2" s="71"/>
       <c r="S2" s="71"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -2626,7 +2626,7 @@
       <c r="R3" s="71"/>
       <c r="S3" s="71"/>
     </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -2646,7 +2646,7 @@
       <c r="R4" s="71"/>
       <c r="S4" s="71"/>
     </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -2666,7 +2666,7 @@
       <c r="R5" s="71"/>
       <c r="S5" s="71"/>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -2686,7 +2686,7 @@
       <c r="R6" s="71"/>
       <c r="S6" s="71"/>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -2706,7 +2706,7 @@
       <c r="R7" s="71"/>
       <c r="S7" s="71"/>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -2726,7 +2726,7 @@
       <c r="R8" s="71"/>
       <c r="S8" s="71"/>
     </row>
-    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -2746,7 +2746,7 @@
       <c r="R9" s="71"/>
       <c r="S9" s="71"/>
     </row>
-    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -2766,7 +2766,7 @@
       <c r="R10" s="71"/>
       <c r="S10" s="71"/>
     </row>
-    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -2777,7 +2777,7 @@
       <c r="H11" s="34"/>
       <c r="I11" s="69"/>
     </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -2788,7 +2788,7 @@
       <c r="H12" s="34"/>
       <c r="I12" s="69"/>
     </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -2799,7 +2799,7 @@
       <c r="H13" s="34"/>
       <c r="I13" s="69"/>
     </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -2810,7 +2810,7 @@
       <c r="H14" s="34"/>
       <c r="I14" s="69"/>
     </row>
-    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -2821,7 +2821,7 @@
       <c r="H15" s="34"/>
       <c r="I15" s="69"/>
     </row>
-    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -2832,7 +2832,7 @@
       <c r="H16" s="34"/>
       <c r="I16" s="69"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -2843,7 +2843,7 @@
       <c r="H17" s="34"/>
       <c r="I17" s="69"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -2854,7 +2854,7 @@
       <c r="H18" s="34"/>
       <c r="I18" s="69"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -2866,7 +2866,7 @@
       <c r="I19" s="69"/>
       <c r="L19" s="33"/>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -2878,7 +2878,7 @@
       <c r="I20" s="69"/>
       <c r="L20" s="33"/>
     </row>
-    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -2890,1948 +2890,1948 @@
       <c r="I21" s="69"/>
       <c r="L21" s="33"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I22" s="69"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I23" s="69"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I24" s="69"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I25" s="69"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I26" s="69"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I27" s="69"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I28" s="69"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I29" s="69"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I30" s="69"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I31" s="69"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I32" s="69"/>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I33" s="69"/>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I34" s="69"/>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I35" s="69"/>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I36" s="69"/>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I37" s="69"/>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I38" s="69"/>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I39" s="69"/>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I40" s="69"/>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I41" s="69"/>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I42" s="69"/>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I43" s="69"/>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I44" s="69"/>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I45" s="69"/>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I46" s="69"/>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I47" s="69"/>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I48" s="69"/>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="69"/>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50" s="69"/>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" s="69"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I52" s="69"/>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I53" s="69"/>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I54" s="69"/>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I55" s="69"/>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I56" s="69"/>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I57" s="69"/>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I58" s="69"/>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I59" s="69"/>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I60" s="69"/>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I61" s="69"/>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I62" s="69"/>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I63" s="69"/>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I64" s="69"/>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I65" s="69"/>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I66" s="69"/>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I67" s="69"/>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I68" s="69"/>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I69" s="69"/>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I70" s="69"/>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I71" s="69"/>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I72" s="69"/>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I73" s="69"/>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I74" s="69"/>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I75" s="69"/>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I76" s="69"/>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I77" s="69"/>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I78" s="69"/>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I79" s="69"/>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I80" s="69"/>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I81" s="69"/>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I82" s="69"/>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I83" s="69"/>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I84" s="69"/>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I85" s="69"/>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I86" s="69"/>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I87" s="69"/>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I88" s="69"/>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I89" s="69"/>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I90" s="69"/>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I91" s="69"/>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I92" s="69"/>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I93" s="69"/>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I94" s="69"/>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I95" s="69"/>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I96" s="69"/>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I97" s="69"/>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I98" s="69"/>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I99" s="69"/>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I100" s="69"/>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I101" s="69"/>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I102" s="69"/>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I103" s="69"/>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I104" s="69"/>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I105" s="69"/>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I106" s="69"/>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I107" s="69"/>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I108" s="69"/>
     </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I109" s="69"/>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I110" s="69"/>
     </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I111" s="69"/>
     </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I112" s="69"/>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I113" s="69"/>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I114" s="69"/>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I115" s="69"/>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I116" s="69"/>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I117" s="69"/>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I118" s="69"/>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I119" s="69"/>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I120" s="69"/>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I121" s="69"/>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I122" s="69"/>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I123" s="69"/>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I124" s="69"/>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I125" s="69"/>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I126" s="69"/>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I127" s="69"/>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I128" s="69"/>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I129" s="69"/>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I130" s="69"/>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I131" s="69"/>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I132" s="69"/>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I133" s="69"/>
     </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I134" s="69"/>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I135" s="69"/>
     </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I136" s="69"/>
     </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I137" s="69"/>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I138" s="69"/>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I139" s="69"/>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I140" s="69"/>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I141" s="69"/>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I142" s="69"/>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I143" s="69"/>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I144" s="69"/>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I145" s="69"/>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I146" s="69"/>
     </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I147" s="69"/>
     </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I148" s="69"/>
     </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I149" s="69"/>
     </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I150" s="69"/>
     </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I151" s="69"/>
     </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I152" s="69"/>
     </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I153" s="69"/>
     </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I154" s="69"/>
     </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I155" s="69"/>
     </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I156" s="69"/>
     </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I157" s="69"/>
     </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I158" s="69"/>
     </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I159" s="69"/>
     </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I160" s="69"/>
     </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I161" s="69"/>
     </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I162" s="69"/>
     </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I163" s="69"/>
     </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I164" s="69"/>
     </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I165" s="69"/>
     </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I166" s="69"/>
     </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I167" s="69"/>
     </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I168" s="69"/>
     </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I169" s="69"/>
     </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I170" s="69"/>
     </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I171" s="69"/>
     </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I172" s="69"/>
     </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I173" s="69"/>
     </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I174" s="69"/>
     </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I175" s="69"/>
     </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I176" s="69"/>
     </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I177" s="69"/>
     </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I178" s="69"/>
     </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I179" s="69"/>
     </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I180" s="69"/>
     </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I181" s="69"/>
     </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I182" s="69"/>
     </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I183" s="69"/>
     </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I184" s="69"/>
     </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I185" s="69"/>
     </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I186" s="69"/>
     </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I187" s="69"/>
     </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I188" s="69"/>
     </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I189" s="69"/>
     </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I190" s="69"/>
     </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I191" s="69"/>
     </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I192" s="69"/>
     </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I193" s="69"/>
     </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I194" s="69"/>
     </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I195" s="69"/>
     </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I196" s="69"/>
     </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I197" s="69"/>
     </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I198" s="69"/>
     </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I199" s="69"/>
     </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I200" s="69"/>
     </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I201" s="69"/>
     </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I202" s="69"/>
     </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I203" s="69"/>
     </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I204" s="69"/>
     </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I205" s="69"/>
     </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I206" s="69"/>
     </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I207" s="69"/>
     </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I208" s="69"/>
     </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I209" s="69"/>
     </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I210" s="69"/>
     </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I211" s="69"/>
     </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I212" s="69"/>
     </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I213" s="69"/>
     </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I214" s="69"/>
     </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I215" s="69"/>
     </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I216" s="69"/>
     </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I217" s="69"/>
     </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I218" s="69"/>
     </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I219" s="69"/>
     </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I220" s="69"/>
     </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I221" s="69"/>
     </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I222" s="69"/>
     </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I223" s="69"/>
     </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I224" s="69"/>
     </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I225" s="69"/>
     </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I226" s="69"/>
     </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I227" s="69"/>
     </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I228" s="69"/>
     </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I229" s="69"/>
     </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I230" s="69"/>
     </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I231" s="69"/>
     </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I232" s="69"/>
     </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I233" s="69"/>
     </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I234" s="69"/>
     </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I235" s="69"/>
     </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I236" s="69"/>
     </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I237" s="69"/>
     </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I238" s="69"/>
     </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I239" s="69"/>
     </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I240" s="69"/>
     </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I241" s="69"/>
     </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I242" s="69"/>
     </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I243" s="69"/>
     </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I244" s="69"/>
     </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I245" s="69"/>
     </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I246" s="69"/>
     </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I247" s="69"/>
     </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I248" s="69"/>
     </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I249" s="69"/>
     </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I250" s="69"/>
     </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I251" s="69"/>
     </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I252" s="69"/>
     </row>
-    <row r="253" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I253" s="69"/>
     </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I254" s="69"/>
     </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I255" s="69"/>
     </row>
-    <row r="256" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I256" s="69"/>
     </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I257" s="69"/>
     </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I258" s="69"/>
     </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I259" s="69"/>
     </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I260" s="69"/>
     </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I261" s="69"/>
     </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I262" s="69"/>
     </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I263" s="69"/>
     </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I264" s="69"/>
     </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I265" s="69"/>
     </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I266" s="69"/>
     </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I267" s="69"/>
     </row>
-    <row r="268" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I268" s="69"/>
     </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I269" s="69"/>
     </row>
-    <row r="270" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I270" s="69"/>
     </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I271" s="69"/>
     </row>
-    <row r="272" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I272" s="69"/>
     </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I273" s="69"/>
     </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I274" s="69"/>
     </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I275" s="69"/>
     </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I276" s="69"/>
     </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I277" s="69"/>
     </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I278" s="69"/>
     </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I279" s="69"/>
     </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I280" s="69"/>
     </row>
-    <row r="281" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I281" s="69"/>
     </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I282" s="69"/>
     </row>
-    <row r="283" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I283" s="69"/>
     </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I284" s="69"/>
     </row>
-    <row r="285" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I285" s="69"/>
     </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I286" s="69"/>
     </row>
-    <row r="287" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I287" s="69"/>
     </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I288" s="69"/>
     </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I289" s="69"/>
     </row>
-    <row r="290" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I290" s="69"/>
     </row>
-    <row r="291" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I291" s="69"/>
     </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I292" s="69"/>
     </row>
-    <row r="293" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I293" s="69"/>
     </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I294" s="69"/>
     </row>
-    <row r="295" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I295" s="69"/>
     </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I296" s="69"/>
     </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I297" s="69"/>
     </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I298" s="69"/>
     </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I299" s="69"/>
     </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I300" s="69"/>
     </row>
-    <row r="301" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I301" s="69"/>
     </row>
-    <row r="302" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I302" s="69"/>
     </row>
-    <row r="303" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I303" s="69"/>
     </row>
-    <row r="304" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I304" s="69"/>
     </row>
-    <row r="305" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I305" s="69"/>
     </row>
-    <row r="306" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I306" s="69"/>
     </row>
-    <row r="307" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I307" s="69"/>
     </row>
-    <row r="308" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I308" s="69"/>
     </row>
-    <row r="309" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I309" s="69"/>
     </row>
-    <row r="310" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I310" s="69"/>
     </row>
-    <row r="311" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I311" s="69"/>
     </row>
-    <row r="312" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I312" s="69"/>
     </row>
-    <row r="313" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I313" s="69"/>
     </row>
-    <row r="314" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I314" s="69"/>
     </row>
-    <row r="315" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I315" s="69"/>
     </row>
-    <row r="316" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I316" s="69"/>
     </row>
-    <row r="317" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I317" s="69"/>
     </row>
-    <row r="318" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I318" s="69"/>
     </row>
-    <row r="319" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I319" s="69"/>
     </row>
-    <row r="320" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I320" s="69"/>
     </row>
-    <row r="321" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I321" s="69"/>
     </row>
-    <row r="322" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I322" s="69"/>
     </row>
-    <row r="323" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I323" s="69"/>
     </row>
-    <row r="324" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I324" s="69"/>
     </row>
-    <row r="325" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I325" s="69"/>
     </row>
-    <row r="326" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I326" s="69"/>
     </row>
-    <row r="327" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I327" s="69"/>
     </row>
-    <row r="328" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I328" s="69"/>
     </row>
-    <row r="329" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I329" s="69"/>
     </row>
-    <row r="330" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I330" s="69"/>
     </row>
-    <row r="331" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I331" s="69"/>
     </row>
-    <row r="332" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I332" s="69"/>
     </row>
-    <row r="333" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I333" s="69"/>
     </row>
-    <row r="334" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I334" s="69"/>
     </row>
-    <row r="335" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I335" s="69"/>
     </row>
-    <row r="336" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I336" s="69"/>
     </row>
-    <row r="337" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I337" s="69"/>
     </row>
-    <row r="338" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I338" s="69"/>
     </row>
-    <row r="339" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I339" s="69"/>
     </row>
-    <row r="340" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I340" s="69"/>
     </row>
-    <row r="341" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I341" s="69"/>
     </row>
-    <row r="342" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I342" s="69"/>
     </row>
-    <row r="343" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I343" s="69"/>
     </row>
-    <row r="344" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I344" s="69"/>
     </row>
-    <row r="345" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I345" s="69"/>
     </row>
-    <row r="346" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I346" s="69"/>
     </row>
-    <row r="347" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I347" s="69"/>
     </row>
-    <row r="348" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I348" s="69"/>
     </row>
-    <row r="349" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I349" s="69"/>
     </row>
-    <row r="350" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I350" s="69"/>
     </row>
-    <row r="351" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I351" s="69"/>
     </row>
-    <row r="352" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I352" s="69"/>
     </row>
-    <row r="353" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I353" s="69"/>
     </row>
-    <row r="354" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I354" s="69"/>
     </row>
-    <row r="355" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I355" s="69"/>
     </row>
-    <row r="356" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I356" s="69"/>
     </row>
-    <row r="357" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I357" s="69"/>
     </row>
-    <row r="358" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I358" s="69"/>
     </row>
-    <row r="359" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I359" s="69"/>
     </row>
-    <row r="360" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I360" s="69"/>
     </row>
-    <row r="361" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I361" s="69"/>
     </row>
-    <row r="362" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I362" s="69"/>
     </row>
-    <row r="363" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I363" s="69"/>
     </row>
-    <row r="364" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I364" s="69"/>
     </row>
-    <row r="365" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I365" s="69"/>
     </row>
-    <row r="366" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I366" s="69"/>
     </row>
-    <row r="367" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I367" s="69"/>
     </row>
-    <row r="368" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I368" s="69"/>
     </row>
-    <row r="369" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I369" s="69"/>
     </row>
-    <row r="370" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I370" s="69"/>
     </row>
-    <row r="371" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I371" s="69"/>
     </row>
-    <row r="372" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I372" s="69"/>
     </row>
-    <row r="373" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I373" s="69"/>
     </row>
-    <row r="374" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I374" s="69"/>
     </row>
-    <row r="375" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I375" s="69"/>
     </row>
-    <row r="376" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I376" s="69"/>
     </row>
-    <row r="377" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I377" s="69"/>
     </row>
-    <row r="378" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I378" s="69"/>
     </row>
-    <row r="379" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I379" s="69"/>
     </row>
-    <row r="380" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I380" s="69"/>
     </row>
-    <row r="381" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I381" s="69"/>
     </row>
-    <row r="382" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I382" s="69"/>
     </row>
-    <row r="383" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I383" s="69"/>
     </row>
-    <row r="384" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I384" s="69"/>
     </row>
-    <row r="385" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I385" s="69"/>
     </row>
-    <row r="386" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I386" s="69"/>
     </row>
-    <row r="387" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I387" s="69"/>
     </row>
-    <row r="388" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I388" s="69"/>
     </row>
-    <row r="389" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I389" s="69"/>
     </row>
-    <row r="390" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I390" s="69"/>
     </row>
-    <row r="391" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I391" s="69"/>
     </row>
-    <row r="392" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I392" s="69"/>
     </row>
-    <row r="393" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I393" s="69"/>
     </row>
-    <row r="394" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I394" s="69"/>
     </row>
-    <row r="395" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I395" s="69"/>
     </row>
-    <row r="396" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I396" s="69"/>
     </row>
-    <row r="397" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I397" s="69"/>
     </row>
-    <row r="398" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I398" s="69"/>
     </row>
-    <row r="399" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I399" s="69"/>
     </row>
-    <row r="400" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I400" s="69"/>
     </row>
-    <row r="401" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I401" s="69"/>
     </row>
-    <row r="402" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I402" s="69"/>
     </row>
-    <row r="403" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I403" s="69"/>
     </row>
-    <row r="404" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I404" s="69"/>
     </row>
-    <row r="405" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I405" s="69"/>
     </row>
-    <row r="406" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I406" s="69"/>
     </row>
-    <row r="407" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I407" s="69"/>
     </row>
-    <row r="408" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I408" s="69"/>
     </row>
-    <row r="409" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I409" s="69"/>
     </row>
-    <row r="410" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I410" s="69"/>
     </row>
-    <row r="411" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I411" s="69"/>
     </row>
-    <row r="412" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I412" s="69"/>
     </row>
-    <row r="413" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I413" s="69"/>
     </row>
-    <row r="414" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I414" s="69"/>
     </row>
-    <row r="415" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I415" s="69"/>
     </row>
-    <row r="416" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I416" s="69"/>
     </row>
-    <row r="417" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I417" s="69"/>
     </row>
-    <row r="418" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I418" s="69"/>
     </row>
-    <row r="419" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I419" s="69"/>
     </row>
-    <row r="420" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I420" s="69"/>
     </row>
-    <row r="421" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I421" s="69"/>
     </row>
-    <row r="422" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I422" s="69"/>
     </row>
-    <row r="423" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I423" s="69"/>
     </row>
-    <row r="424" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I424" s="69"/>
     </row>
-    <row r="425" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I425" s="69"/>
     </row>
-    <row r="426" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I426" s="69"/>
     </row>
-    <row r="427" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I427" s="69"/>
     </row>
-    <row r="428" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I428" s="69"/>
     </row>
-    <row r="429" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I429" s="69"/>
     </row>
-    <row r="430" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I430" s="69"/>
     </row>
-    <row r="431" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I431" s="69"/>
     </row>
-    <row r="432" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I432" s="69"/>
     </row>
-    <row r="433" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I433" s="69"/>
     </row>
-    <row r="434" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I434" s="69"/>
     </row>
-    <row r="435" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I435" s="69"/>
     </row>
-    <row r="436" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I436" s="69"/>
     </row>
-    <row r="437" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I437" s="69"/>
     </row>
-    <row r="438" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I438" s="69"/>
     </row>
-    <row r="439" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I439" s="69"/>
     </row>
-    <row r="440" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I440" s="69"/>
     </row>
-    <row r="441" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I441" s="69"/>
     </row>
-    <row r="442" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I442" s="69"/>
     </row>
-    <row r="443" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I443" s="69"/>
     </row>
-    <row r="444" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I444" s="69"/>
     </row>
-    <row r="445" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I445" s="69"/>
     </row>
-    <row r="446" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I446" s="69"/>
     </row>
-    <row r="447" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I447" s="69"/>
     </row>
-    <row r="448" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I448" s="69"/>
     </row>
-    <row r="449" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I449" s="69"/>
     </row>
-    <row r="450" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I450" s="69"/>
     </row>
-    <row r="451" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I451" s="69"/>
     </row>
-    <row r="452" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I452" s="69"/>
     </row>
-    <row r="453" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I453" s="69"/>
     </row>
-    <row r="454" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I454" s="69"/>
     </row>
-    <row r="455" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I455" s="69"/>
     </row>
-    <row r="456" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I456" s="69"/>
     </row>
-    <row r="457" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I457" s="69"/>
     </row>
-    <row r="458" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I458" s="69"/>
     </row>
-    <row r="459" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I459" s="69"/>
     </row>
-    <row r="460" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I460" s="69"/>
     </row>
-    <row r="461" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I461" s="69"/>
     </row>
-    <row r="462" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I462" s="69"/>
     </row>
-    <row r="463" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I463" s="69"/>
     </row>
-    <row r="464" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I464" s="69"/>
     </row>
-    <row r="465" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I465" s="69"/>
     </row>
-    <row r="466" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I466" s="69"/>
     </row>
-    <row r="467" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I467" s="69"/>
     </row>
-    <row r="468" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I468" s="69"/>
     </row>
-    <row r="469" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I469" s="69"/>
     </row>
-    <row r="470" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I470" s="69"/>
     </row>
-    <row r="471" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I471" s="69"/>
     </row>
-    <row r="472" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I472" s="69"/>
     </row>
-    <row r="473" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I473" s="69"/>
     </row>
-    <row r="474" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I474" s="69"/>
     </row>
-    <row r="475" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I475" s="69"/>
     </row>
-    <row r="476" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I476" s="69"/>
     </row>
-    <row r="477" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I477" s="69"/>
     </row>
-    <row r="478" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I478" s="69"/>
     </row>
-    <row r="479" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I479" s="69"/>
     </row>
-    <row r="480" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I480" s="69"/>
     </row>
-    <row r="481" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I481" s="69"/>
     </row>
-    <row r="482" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I482" s="69"/>
     </row>
-    <row r="483" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I483" s="69"/>
     </row>
-    <row r="484" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I484" s="69"/>
     </row>
-    <row r="485" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I485" s="69"/>
     </row>
-    <row r="486" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I486" s="69"/>
     </row>
-    <row r="487" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I487" s="69"/>
     </row>
-    <row r="488" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I488" s="69"/>
     </row>
-    <row r="489" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I489" s="69"/>
     </row>
-    <row r="490" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I490" s="69"/>
     </row>
-    <row r="491" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I491" s="69"/>
     </row>
-    <row r="492" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I492" s="69"/>
     </row>
-    <row r="493" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I493" s="69"/>
     </row>
-    <row r="494" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I494" s="69"/>
     </row>
-    <row r="495" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I495" s="69"/>
     </row>
-    <row r="496" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I496" s="69"/>
     </row>
-    <row r="497" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I497" s="69"/>
     </row>
-    <row r="498" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I498" s="69"/>
     </row>
-    <row r="499" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I499" s="69"/>
     </row>
-    <row r="500" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I500" s="69"/>
     </row>
-    <row r="501" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I501" s="69"/>
     </row>
-    <row r="502" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I502" s="69"/>
     </row>
-    <row r="503" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I503" s="69"/>
     </row>
-    <row r="504" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I504" s="69"/>
     </row>
-    <row r="505" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I505" s="69"/>
     </row>
-    <row r="506" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I506" s="69"/>
     </row>
-    <row r="507" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I507" s="69"/>
     </row>
-    <row r="508" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I508" s="69"/>
     </row>
-    <row r="509" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I509" s="69"/>
     </row>
-    <row r="510" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I510" s="69"/>
     </row>
-    <row r="511" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I511" s="69"/>
     </row>
-    <row r="512" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I512" s="69"/>
     </row>
-    <row r="513" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I513" s="69"/>
     </row>
-    <row r="514" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I514" s="69"/>
     </row>
-    <row r="515" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I515" s="69"/>
     </row>
-    <row r="516" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I516" s="69"/>
     </row>
-    <row r="517" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I517" s="69"/>
     </row>
-    <row r="518" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I518" s="69"/>
     </row>
-    <row r="519" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I519" s="69"/>
     </row>
-    <row r="520" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I520" s="69"/>
     </row>
-    <row r="521" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I521" s="69"/>
     </row>
-    <row r="522" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I522" s="69"/>
     </row>
-    <row r="523" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I523" s="69"/>
     </row>
-    <row r="524" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="524" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I524" s="69"/>
     </row>
-    <row r="525" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="525" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I525" s="69"/>
     </row>
-    <row r="526" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I526" s="69"/>
     </row>
-    <row r="527" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I527" s="69"/>
     </row>
-    <row r="528" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="528" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I528" s="69"/>
     </row>
-    <row r="529" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="529" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I529" s="69"/>
     </row>
-    <row r="530" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I530" s="69"/>
     </row>
-    <row r="531" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I531" s="69"/>
     </row>
-    <row r="532" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I532" s="69"/>
     </row>
-    <row r="533" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="533" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I533" s="69"/>
     </row>
-    <row r="534" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I534" s="69"/>
     </row>
-    <row r="535" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I535" s="69"/>
     </row>
-    <row r="536" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I536" s="69"/>
     </row>
-    <row r="537" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="537" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I537" s="69"/>
     </row>
-    <row r="538" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="538" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I538" s="69"/>
     </row>
-    <row r="539" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I539" s="69"/>
     </row>
-    <row r="540" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I540" s="69"/>
     </row>
-    <row r="541" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I541" s="69"/>
     </row>
-    <row r="542" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I542" s="69"/>
     </row>
-    <row r="543" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I543" s="69"/>
     </row>
-    <row r="544" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I544" s="69"/>
     </row>
-    <row r="545" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I545" s="69"/>
     </row>
-    <row r="546" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I546" s="69"/>
     </row>
-    <row r="547" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I547" s="69"/>
     </row>
-    <row r="548" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I548" s="69"/>
     </row>
-    <row r="549" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I549" s="69"/>
     </row>
-    <row r="550" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I550" s="69"/>
     </row>
-    <row r="551" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I551" s="69"/>
     </row>
-    <row r="552" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I552" s="69"/>
     </row>
-    <row r="553" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I553" s="69"/>
     </row>
-    <row r="554" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I554" s="69"/>
     </row>
-    <row r="555" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I555" s="69"/>
     </row>
-    <row r="556" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I556" s="69"/>
     </row>
-    <row r="557" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I557" s="69"/>
     </row>
-    <row r="558" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I558" s="69"/>
     </row>
-    <row r="559" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I559" s="69"/>
     </row>
-    <row r="560" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I560" s="69"/>
     </row>
-    <row r="561" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I561" s="69"/>
     </row>
-    <row r="562" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I562" s="69"/>
     </row>
-    <row r="563" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I563" s="69"/>
     </row>
-    <row r="564" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I564" s="69"/>
     </row>
-    <row r="565" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I565" s="69"/>
     </row>
-    <row r="566" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I566" s="69"/>
     </row>
-    <row r="567" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I567" s="69"/>
     </row>
-    <row r="568" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I568" s="69"/>
     </row>
-    <row r="569" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I569" s="69"/>
     </row>
-    <row r="570" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I570" s="69"/>
     </row>
-    <row r="571" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I571" s="69"/>
     </row>
-    <row r="572" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I572" s="69"/>
     </row>
-    <row r="573" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I573" s="69"/>
     </row>
-    <row r="574" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I574" s="69"/>
     </row>
-    <row r="575" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I575" s="69"/>
     </row>
-    <row r="576" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I576" s="69"/>
     </row>
-    <row r="577" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I577" s="69"/>
     </row>
-    <row r="578" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I578" s="69"/>
     </row>
-    <row r="579" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I579" s="69"/>
     </row>
-    <row r="580" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I580" s="69"/>
     </row>
-    <row r="581" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I581" s="69"/>
     </row>
-    <row r="582" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I582" s="69"/>
     </row>
-    <row r="583" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I583" s="69"/>
     </row>
-    <row r="584" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I584" s="69"/>
     </row>
-    <row r="585" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I585" s="69"/>
     </row>
-    <row r="586" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I586" s="69"/>
     </row>
-    <row r="587" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I587" s="69"/>
     </row>
-    <row r="588" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I588" s="69"/>
     </row>
-    <row r="589" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I589" s="69"/>
     </row>
-    <row r="590" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I590" s="69"/>
     </row>
-    <row r="591" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I591" s="69"/>
     </row>
-    <row r="592" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I592" s="69"/>
     </row>
-    <row r="593" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I593" s="69"/>
     </row>
-    <row r="594" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I594" s="69"/>
     </row>
-    <row r="595" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I595" s="69"/>
     </row>
-    <row r="596" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I596" s="69"/>
     </row>
-    <row r="597" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I597" s="69"/>
     </row>
-    <row r="598" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I598" s="69"/>
     </row>
-    <row r="599" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I599" s="69"/>
     </row>
-    <row r="600" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I600" s="69"/>
     </row>
-    <row r="601" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I601" s="69"/>
     </row>
-    <row r="602" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I602" s="69"/>
     </row>
-    <row r="603" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I603" s="69"/>
     </row>
-    <row r="604" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I604" s="69"/>
     </row>
-    <row r="605" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I605" s="69"/>
     </row>
-    <row r="606" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I606" s="69"/>
     </row>
-    <row r="607" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I607" s="69"/>
     </row>
-    <row r="608" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I608" s="69"/>
     </row>
-    <row r="609" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="609" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I609" s="69"/>
     </row>
-    <row r="610" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="610" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I610" s="69"/>
     </row>
-    <row r="611" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="611" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I611" s="69"/>
     </row>
-    <row r="612" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="612" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I612" s="69"/>
     </row>
-    <row r="613" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="613" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I613" s="69"/>
     </row>
-    <row r="614" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="614" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I614" s="69"/>
     </row>
-    <row r="615" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="615" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I615" s="69"/>
     </row>
-    <row r="616" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="616" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I616" s="69"/>
     </row>
-    <row r="617" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="617" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I617" s="69"/>
     </row>
-    <row r="618" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="618" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I618" s="69"/>
     </row>
-    <row r="619" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="619" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I619" s="69"/>
     </row>
-    <row r="620" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="620" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I620" s="69"/>
     </row>
-    <row r="621" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="621" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I621" s="69"/>
     </row>
-    <row r="622" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="622" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I622" s="69"/>
     </row>
-    <row r="623" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="623" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I623" s="69"/>
     </row>
-    <row r="624" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="624" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I624" s="69"/>
     </row>
-    <row r="625" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="625" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I625" s="69"/>
     </row>
-    <row r="626" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="626" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I626" s="69"/>
     </row>
-    <row r="627" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="627" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I627" s="69"/>
     </row>
-    <row r="628" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="628" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I628" s="69"/>
     </row>
-    <row r="629" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="629" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I629" s="69"/>
     </row>
-    <row r="630" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="630" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I630" s="69"/>
     </row>
-    <row r="631" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="631" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I631" s="69"/>
     </row>
-    <row r="632" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="632" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I632" s="69"/>
     </row>
-    <row r="633" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="633" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I633" s="69"/>
     </row>
-    <row r="634" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="634" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I634" s="69"/>
     </row>
-    <row r="635" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="635" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I635" s="69"/>
     </row>
-    <row r="636" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="636" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I636" s="69"/>
     </row>
-    <row r="637" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="637" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I637" s="69"/>
     </row>
-    <row r="638" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="638" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I638" s="69"/>
     </row>
-    <row r="639" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="639" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I639" s="69"/>
     </row>
-    <row r="640" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="640" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I640" s="69"/>
     </row>
-    <row r="641" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I641" s="69"/>
     </row>
-    <row r="642" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I642" s="69"/>
     </row>
-    <row r="643" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I643" s="69"/>
     </row>
-    <row r="644" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I644" s="69"/>
     </row>
-    <row r="645" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I645" s="69"/>
     </row>
-    <row r="646" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I646" s="69"/>
     </row>
-    <row r="647" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="647" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I647" s="69"/>
     </row>
-    <row r="648" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="648" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I648" s="69"/>
     </row>
-    <row r="649" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="649" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I649" s="69"/>
     </row>
-    <row r="650" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="650" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I650" s="69"/>
     </row>
-    <row r="651" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="651" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I651" s="69"/>
     </row>
-    <row r="652" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="652" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I652" s="69"/>
     </row>
-    <row r="653" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="653" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I653" s="69"/>
     </row>
-    <row r="654" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="654" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I654" s="69"/>
     </row>
-    <row r="655" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="655" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I655" s="69"/>
     </row>
-    <row r="656" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="656" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I656" s="69"/>
     </row>
-    <row r="657" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="657" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I657" s="69"/>
     </row>
-    <row r="658" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="658" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I658" s="69"/>
     </row>
-    <row r="659" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="659" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I659" s="69"/>
     </row>
-    <row r="660" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="660" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I660" s="69"/>
     </row>
-    <row r="661" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="661" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I661" s="69"/>
     </row>
-    <row r="662" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="662" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I662" s="69"/>
     </row>
-    <row r="663" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="663" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I663" s="69"/>
     </row>
-    <row r="664" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="664" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I664" s="69"/>
     </row>
-    <row r="665" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="665" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I665" s="69"/>
     </row>
-    <row r="666" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="666" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I666" s="69"/>
     </row>
-    <row r="667" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="667" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I667" s="69"/>
     </row>
-    <row r="668" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="668" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I668" s="69"/>
     </row>
-    <row r="669" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="669" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I669" s="69"/>
     </row>
   </sheetData>
@@ -4852,31 +4852,31 @@
       <selection activeCell="I225" sqref="I225:K225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="7" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="7" customWidth="1"/>
-    <col min="5" max="5" width="3.44140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="3" style="7" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="32" customWidth="1"/>
-    <col min="10" max="10" width="19.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.44140625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="11.109375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="75.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="7"/>
-    <col min="18" max="18" width="24.44140625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="25.33203125" style="7" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="7"/>
+    <col min="9" max="9" width="7.5703125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="75.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="7"/>
+    <col min="18" max="18" width="24.42578125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="25.28515625" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
@@ -4887,7 +4887,7 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="O2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>42</v>
       </c>
@@ -4925,7 +4925,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="14"/>
     </row>
-    <row r="4" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -4936,7 +4936,7 @@
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="74" t="s">
         <v>18</v>
       </c>
@@ -4962,7 +4962,7 @@
       </c>
       <c r="S5" s="73"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
         <v>1</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <v>2</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="15">
         <v>3</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="15">
         <v>4</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15">
         <v>5</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15">
         <v>6</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="15">
         <v>7</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="15">
         <v>8</v>
       </c>
@@ -5284,7 +5284,7 @@
       <c r="R13" s="24"/>
       <c r="S13" s="23"/>
     </row>
-    <row r="14" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <v>9</v>
       </c>
@@ -5327,7 +5327,7 @@
       <c r="R14" s="24"/>
       <c r="S14" s="23"/>
     </row>
-    <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="44">
         <f>E14+1</f>
         <v>10</v>
@@ -5364,7 +5364,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="74" t="s">
         <v>19</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="15">
         <v>1</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="18" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="15">
         <v>2</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="15">
         <v>4</v>
       </c>
@@ -5484,7 +5484,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
         <v>5</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" s="15">
         <v>8</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="15">
         <v>9</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="15">
         <v>10</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" s="15">
         <v>11</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" s="15">
         <v>12</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="15">
         <v>13</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="15">
         <v>14</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="15">
         <v>15</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="15">
         <v>16</v>
       </c>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="P29" s="73"/>
     </row>
-    <row r="30" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="17">
         <v>18</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I31" s="30">
         <v>19</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="2:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="72" t="s">
         <v>295</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B33" s="39">
         <v>-1</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B34" s="15">
         <v>1</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="15">
         <v>2</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B36" s="15">
         <v>3</v>
       </c>
@@ -6012,7 +6012,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B37" s="15">
         <v>4</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B38" s="15">
         <v>5</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B39" s="15">
         <v>6</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B40" s="15">
         <v>7</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B41" s="15">
         <v>8</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B42" s="15">
         <v>9</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B43" s="15">
         <v>10</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B44" s="15">
         <v>11</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B45" s="15">
         <v>12</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I46" s="30">
         <v>34</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I47" s="30">
         <v>35</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I48" s="30">
         <v>36</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I49" s="30">
         <v>37</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I50" s="30">
         <v>38</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I51" s="30">
         <v>39</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I52" s="30">
         <v>40</v>
       </c>
@@ -6429,7 +6429,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I53" s="30">
         <v>41</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="54" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I54" s="30">
         <v>42</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I55" s="30">
         <v>43</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="56" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I56" s="30">
         <v>44</v>
       </c>
@@ -6506,7 +6506,7 @@
       <c r="O56" s="20"/>
       <c r="P56" s="21"/>
     </row>
-    <row r="57" spans="9:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="9:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I57" s="30">
         <v>45</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="O57" s="22"/>
       <c r="P57" s="57"/>
     </row>
-    <row r="58" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I58" s="30">
         <v>46</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I59" s="30">
         <v>47</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I60" s="30">
         <v>48</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I61" s="30">
         <v>49</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I62" s="30">
         <v>50</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="63" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I63" s="30">
         <v>51</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I64" s="30">
         <v>52</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I65" s="30">
         <v>53</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I66" s="30">
         <v>54</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I67" s="30">
         <v>55</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I68" s="30">
         <v>56</v>
       </c>
@@ -6652,7 +6652,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I69" s="30">
         <v>57</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I70" s="30">
         <v>58</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I71" s="30">
         <v>59</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I72" s="30">
         <v>60</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I73" s="30">
         <v>61</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I74" s="30">
         <v>62</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I75" s="30">
         <v>63</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="76" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I76" s="30">
         <v>64</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="77" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I77" s="30">
         <v>65</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I78" s="30">
         <v>66</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="79" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I79" s="30">
         <v>67</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I80" s="30">
         <v>68</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I81" s="30">
         <v>69</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I82" s="30">
         <v>70</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I83" s="30">
         <v>71</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I84" s="30">
         <v>72</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I85" s="30">
         <v>73</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I86" s="30">
         <v>74</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I87" s="30">
         <v>75</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I88" s="30">
         <v>76</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I89" s="30">
         <v>77</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I90" s="30">
         <v>78</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I91" s="30">
         <v>79</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I92" s="30">
         <v>80</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I93" s="30">
         <v>81</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I94" s="30">
         <v>82</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="95" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I95" s="30">
         <v>83</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I96" s="30">
         <v>84</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="97" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I97" s="30">
         <v>85</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="98" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I98" s="30">
         <v>86</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="99" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I99" s="30">
         <v>87</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="100" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I100" s="30">
         <v>88</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="101" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I101" s="30">
         <v>89</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="102" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I102" s="30">
         <v>90</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="103" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I103" s="30">
         <v>91</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="104" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I104" s="30">
         <v>92</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I105" s="30">
         <v>93</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I106" s="30">
         <v>94</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="107" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I107" s="30">
         <v>95</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="108" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I108" s="30">
         <v>96</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I109" s="30">
         <v>97</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="110" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I110" s="30">
         <v>98</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I111" s="30">
         <v>99</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I112" s="30">
         <v>100</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I113" s="30">
         <v>101</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I114" s="30">
         <v>102</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="115" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I115" s="30">
         <v>103</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="116" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I116" s="30">
         <v>104</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I117" s="30">
         <v>105</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I118" s="30">
         <v>106</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I119" s="30">
         <v>107</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="120" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I120" s="30">
         <v>108</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I121" s="30">
         <v>109</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="122" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I122" s="30">
         <v>110</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I123" s="30">
         <v>111</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I124" s="30">
         <v>112</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="125" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I125" s="30">
         <v>113</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="126" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I126" s="30">
         <v>114</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I127" s="30">
         <v>115</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I128" s="30">
         <v>116</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I129" s="30">
         <v>117</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="130" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I130" s="30">
         <v>118</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="131" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I131" s="30">
         <v>119</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="132" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I132" s="30">
         <v>120</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="133" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I133" s="30">
         <v>121</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I134" s="30">
         <v>122</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="135" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I135" s="30">
         <v>123</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="136" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I136" s="30">
         <v>124</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="137" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I137" s="30">
         <v>125</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="138" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I138" s="30">
         <v>126</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="139" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I139" s="30">
         <v>127</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I140" s="30">
         <v>128</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I141" s="30">
         <v>129</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="142" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I142" s="30">
         <v>130</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="143" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I143" s="30">
         <v>131</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I144" s="30">
         <v>132</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I145" s="30">
         <v>133</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I146" s="30">
         <v>134</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I147" s="30">
         <v>135</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="148" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I148" s="30">
         <v>136</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="149" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I149" s="30">
         <v>137</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="150" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I150" s="30">
         <v>138</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="151" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I151" s="30">
         <v>139</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="152" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I152" s="30">
         <v>140</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="153" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I153" s="30">
         <v>141</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="154" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I154" s="30">
         <v>142</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="155" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I155" s="30">
         <v>143</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="156" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I156" s="30">
         <v>144</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="157" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I157" s="30">
         <v>145</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="158" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I158" s="30">
         <v>146</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I159" s="30">
         <v>147</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="160" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I160" s="30">
         <v>148</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="161" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I161" s="30">
         <v>149</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="162" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I162" s="30">
         <v>150</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="163" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I163" s="30">
         <v>151</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="164" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I164" s="30">
         <v>152</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="165" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I165" s="30">
         <v>153</v>
       </c>
@@ -7816,7 +7816,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="166" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I166" s="30">
         <v>154</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="167" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I167" s="30">
         <v>155</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="168" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I168" s="30">
         <v>156</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="169" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I169" s="30">
         <v>157</v>
       </c>
@@ -7864,7 +7864,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I170" s="30">
         <v>158</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="171" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I171" s="30">
         <v>159</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="172" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I172" s="30">
         <v>160</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="173" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I173" s="30">
         <v>161</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="174" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I174" s="30">
         <v>162</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="175" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I175" s="30">
         <v>163</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="176" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I176" s="30">
         <v>164</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="177" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I177" s="30">
         <v>165</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="178" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I178" s="30">
         <v>166</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="179" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I179" s="30">
         <v>167</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="180" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I180" s="30">
         <v>168</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="181" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I181" s="30">
         <v>169</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="182" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I182" s="30">
         <v>170</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="183" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I183" s="30">
         <v>171</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="184" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I184" s="30">
         <v>172</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="185" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I185" s="30">
         <v>173</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="186" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I186" s="30">
         <v>174</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="187" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I187" s="30">
         <v>175</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="188" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I188" s="30">
         <v>176</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="189" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I189" s="30">
         <v>177</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="190" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I190" s="30">
         <v>179</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="191" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I191" s="30">
         <v>180</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="192" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I192" s="30">
         <v>181</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="193" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I193" s="30">
         <v>182</v>
       </c>
@@ -8152,7 +8152,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="194" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I194" s="30">
         <v>183</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="195" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I195" s="30">
         <v>184</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I196" s="30">
         <v>185</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="197" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I197" s="30">
         <v>186</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="198" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I198" s="30">
         <v>187</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="199" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I199" s="30">
         <v>188</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="200" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I200" s="30">
         <v>189</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="201" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I201" s="30">
         <v>190</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="202" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I202" s="30">
         <v>191</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="203" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I203" s="30">
         <v>192</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="204" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I204" s="30">
         <v>193</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="205" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I205" s="30">
         <v>198</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="206" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I206" s="30">
         <v>199</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="207" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I207" s="30">
         <v>200</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="208" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I208" s="30">
         <v>201</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="209" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I209" s="30">
         <v>202</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="210" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I210" s="30">
         <v>203</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="211" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I211" s="30">
         <v>204</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="212" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I212" s="30">
         <v>205</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="213" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I213" s="30">
         <v>206</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="214" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I214" s="30">
         <v>207</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="215" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I215" s="30">
         <v>208</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="216" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I216" s="30">
         <v>209</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="217" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I217" s="30">
         <v>210</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="218" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I218" s="30">
         <v>211</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="219" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I219" s="30">
         <v>212</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="220" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I220" s="30">
         <v>213</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="221" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I221" s="30">
         <v>214</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="222" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I222" s="30">
         <v>215</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="223" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I223" s="30">
         <v>216</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="224" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I224" s="30">
         <v>217</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="225" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I225" s="30">
         <v>219</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="226" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I226" s="30">
         <v>220</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="227" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I227" s="30">
         <v>221</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="228" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I228" s="30">
         <v>224</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="229" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I229" s="30">
         <v>225</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="230" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I230" s="30">
         <v>226</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="231" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I231" s="30">
         <v>227</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="232" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I232" s="30">
         <v>228</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="233" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I233" s="30">
         <v>229</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="234" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I234" s="30">
         <v>230</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="235" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I235" s="30">
         <v>232</v>
       </c>
@@ -8656,7 +8656,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="236" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I236" s="30">
         <v>233</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="237" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I237" s="30">
         <v>234</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="238" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I238" s="30">
         <v>235</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="239" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I239" s="30">
         <v>236</v>
       </c>
@@ -8734,19 +8734,19 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="68.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>328</v>
       </c>
       <c r="B1" s="73"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="62">
         <v>0</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="62">
         <v>101</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="62">
         <v>102</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="62">
         <v>103</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="62">
         <v>104</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="62">
         <v>105</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="62">
         <v>106</v>
       </c>
@@ -8802,7 +8802,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="62">
         <v>201</v>
       </c>
@@ -8810,7 +8810,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
         <v>202</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
         <v>203</v>
       </c>
@@ -8826,7 +8826,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="62">
         <v>204</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="62">
         <v>205</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="62">
         <v>206</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="62">
         <v>207</v>
       </c>
@@ -8858,7 +8858,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="62">
         <v>208</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="62">
         <v>209</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="62">
         <v>210</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="62">
         <v>211</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="62">
         <v>301</v>
       </c>
@@ -8898,7 +8898,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="62">
         <v>302</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="62">
         <v>303</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="62">
         <v>401</v>
       </c>
@@ -8922,11 +8922,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="62"/>
       <c r="B24" s="63"/>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="65"/>
       <c r="B25" s="66"/>
     </row>
@@ -8939,12 +8939,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <AssignedTo xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo xmlns="http://schemas.microsoft.com/sharepoint/v3">
+        <DisplayName xmlns="http://schemas.microsoft.com/sharepoint/v3"/>
+        <AccountId xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+        <AccountType xmlns="http://schemas.microsoft.com/sharepoint/v3"/>
+      </UserInfo>
+    </AssignedTo>
+    <_DCDateCreated xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9032,24 +9038,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <AssignedTo xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo xmlns="http://schemas.microsoft.com/sharepoint/v3">
-        <DisplayName xmlns="http://schemas.microsoft.com/sharepoint/v3"/>
-        <AccountId xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-        <AccountType xmlns="http://schemas.microsoft.com/sharepoint/v3"/>
-      </UserInfo>
-    </AssignedTo>
-    <_DCDateCreated xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB71398-119A-4F88-B202-8C1F42D23C72}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E204E564-F31A-4545-987F-0234B48DC709}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9073,17 +9081,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E204E564-F31A-4545-987F-0234B48DC709}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ADB71398-119A-4F88-B202-8C1F42D23C72}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>